--- a/resources/wheels/162 - Кравчук.xlsx
+++ b/resources/wheels/162 - Кравчук.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -702,16 +702,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -930,9 +930,9 @@
       <c r="F16" s="23">
         <v>20.9</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>39.5</v>
+        <v>53.149</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1042,7 +1042,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>3.086</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -1054,7 +1056,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>6.34</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -1066,7 +1070,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>4.223</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -1606,16 +1612,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1834,9 +1840,9 @@
       <c r="F16" s="23">
         <v>20.9</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>39.5</v>
+        <v>53.149</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1946,7 +1952,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>3.086</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -1958,7 +1966,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>6.34</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -1970,7 +1980,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>4.223</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -2510,16 +2522,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="17" style="20" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="20" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="20" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2718,9 +2730,9 @@
       <c r="F16" s="23">
         <v>78.8</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>97.3</v>
+        <v>110.949</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -2824,7 +2836,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>3.086</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -2834,7 +2848,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>6.34</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -2844,7 +2860,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>4.223</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -3363,16 +3381,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="17" style="20" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="20" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="20" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3571,9 +3589,9 @@
       <c r="F16" s="23">
         <v>78.8</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>97.3</v>
+        <v>110.949</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -3677,7 +3695,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>3.086</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -3687,7 +3707,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>6.34</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -3697,7 +3719,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>4.223</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -4219,16 +4243,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4441,9 +4465,9 @@
       <c r="F16" s="23">
         <v>130</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>148.6</v>
+        <v>162.24900000000002</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -4553,7 +4577,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>3.086</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -4565,7 +4591,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>6.34</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -4577,7 +4605,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>4.223</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -5120,16 +5150,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5342,9 +5372,9 @@
       <c r="F16" s="23">
         <v>130</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>148.6</v>
+        <v>162.24900000000002</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -5454,7 +5484,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>3.086</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -5466,7 +5498,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>6.34</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -5478,7 +5512,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>4.223</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -6021,16 +6057,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6237,9 +6273,9 @@
       <c r="F16" s="23">
         <v>130</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>148.6</v>
+        <v>162.24900000000002</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -6349,7 +6385,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>3.086</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -6361,7 +6399,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>6.34</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -6373,7 +6413,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>4.223</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>

--- a/resources/wheels/162 - Кравчук.xlsx
+++ b/resources/wheels/162 - Кравчук.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="60">
   <si>
     <t>Карточка учета работы автомобильной шины</t>
   </si>
@@ -169,6 +169,42 @@
   </si>
   <si>
     <t>AB 5981-7</t>
+  </si>
+  <si>
+    <t>январь 2021</t>
+  </si>
+  <si>
+    <t>февраль 2021</t>
+  </si>
+  <si>
+    <t>март 2021</t>
+  </si>
+  <si>
+    <t>апрель 2021</t>
+  </si>
+  <si>
+    <t>май 2021</t>
+  </si>
+  <si>
+    <t>июнь 2021</t>
+  </si>
+  <si>
+    <t>июль 2021</t>
+  </si>
+  <si>
+    <t>август 2021</t>
+  </si>
+  <si>
+    <t>сентябрь 2021</t>
+  </si>
+  <si>
+    <t>октябрь 2021</t>
+  </si>
+  <si>
+    <t>ноябрь 2021</t>
+  </si>
+  <si>
+    <t>декабрь 2021</t>
   </si>
 </sst>
 </file>
@@ -696,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -932,7 +968,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>53.149</v>
+        <v>64.717</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1042,8 +1078,8 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
-        <v>3.086</v>
+      <c r="F24" s="23">
+        <v>3.0859999999999999</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
@@ -1056,7 +1092,7 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
+      <c r="F25" s="23">
         <v>6.34</v>
       </c>
       <c r="G25" s="23"/>
@@ -1070,8 +1106,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
-        <v>4.223</v>
+      <c r="F26" s="23">
+        <v>4.2229999999999999</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -1084,7 +1120,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>4.7359999999999998</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -1096,7 +1134,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>3.444</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -1108,7 +1148,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>3.388</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -1117,8 +1159,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -1127,7 +1173,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -1137,7 +1185,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -1147,7 +1197,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -1157,7 +1209,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -1167,7 +1221,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -1177,7 +1233,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -1187,7 +1245,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -1197,7 +1257,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -1207,7 +1269,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -1217,7 +1281,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -1227,7 +1293,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
@@ -1607,7 +1675,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1842,7 +1910,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>53.149</v>
+        <v>64.717</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1952,8 +2020,8 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
-        <v>3.086</v>
+      <c r="F24" s="23">
+        <v>3.0859999999999999</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
@@ -1966,7 +2034,7 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
+      <c r="F25" s="23">
         <v>6.34</v>
       </c>
       <c r="G25" s="23"/>
@@ -1980,8 +2048,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
-        <v>4.223</v>
+      <c r="F26" s="23">
+        <v>4.2229999999999999</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -1994,7 +2062,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>4.7359999999999998</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -2006,7 +2076,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>3.444</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -2018,7 +2090,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>3.388</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -2027,8 +2101,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -2037,7 +2115,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -2047,7 +2127,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -2057,7 +2139,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -2067,7 +2151,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -2077,7 +2163,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -2087,7 +2175,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -2097,7 +2187,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -2107,7 +2199,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -2117,7 +2211,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -2127,7 +2223,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -2137,7 +2235,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
@@ -2517,7 +2617,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2732,7 +2832,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>110.949</v>
+        <v>115.685</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -2836,8 +2936,8 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
-        <v>3.086</v>
+      <c r="F24" s="23">
+        <v>3.0859999999999999</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
@@ -2848,7 +2948,7 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
+      <c r="F25" s="23">
         <v>6.34</v>
       </c>
       <c r="G25" s="23"/>
@@ -2860,8 +2960,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
-        <v>4.223</v>
+      <c r="F26" s="23">
+        <v>4.2229999999999999</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -2872,7 +2972,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>4.7359999999999998</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -2882,7 +2984,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="23"/>
+      <c r="G28" s="23">
+        <v>3.444</v>
+      </c>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2891,14 +2995,20 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="23"/>
+      <c r="G29" s="23" t="n">
+        <v>3.388</v>
+      </c>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -2906,7 +3016,9 @@
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -2915,7 +3027,9 @@
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="D32" s="24"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -2924,7 +3038,9 @@
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="D33" s="24"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -2933,7 +3049,9 @@
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="D34" s="24"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -2942,7 +3060,9 @@
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="D35" s="24"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -2951,7 +3071,9 @@
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="D36" s="24"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -2960,7 +3082,9 @@
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="D37" s="24"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -2969,7 +3093,9 @@
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="D38" s="24"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -2978,7 +3104,9 @@
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="D39" s="24"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -2987,7 +3115,9 @@
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="D40" s="24"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -2996,7 +3126,9 @@
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="D41" s="24"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
@@ -3376,7 +3508,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3591,7 +3723,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>110.949</v>
+        <v>115.685</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -3695,8 +3827,8 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
-        <v>3.086</v>
+      <c r="F24" s="23">
+        <v>3.0859999999999999</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
@@ -3707,7 +3839,7 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
+      <c r="F25" s="23">
         <v>6.34</v>
       </c>
       <c r="G25" s="23"/>
@@ -3719,8 +3851,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
-        <v>4.223</v>
+      <c r="F26" s="23">
+        <v>4.2229999999999999</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -3731,7 +3863,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>4.7359999999999998</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -3741,7 +3875,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="23"/>
+      <c r="G28" s="23">
+        <v>3.444</v>
+      </c>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3750,14 +3886,20 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="23"/>
+      <c r="G29" s="23" t="n">
+        <v>3.388</v>
+      </c>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -3765,7 +3907,9 @@
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -3774,7 +3918,9 @@
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="D32" s="24"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -3783,7 +3929,9 @@
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="D33" s="24"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -3792,7 +3940,9 @@
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="D34" s="24"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -3801,7 +3951,9 @@
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="D35" s="24"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -3810,7 +3962,9 @@
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="D36" s="24"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -3819,7 +3973,9 @@
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="D37" s="24"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -3828,7 +3984,9 @@
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="D38" s="24"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -3837,7 +3995,9 @@
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="D39" s="24"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -3846,7 +4006,9 @@
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="D40" s="24"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -3855,7 +4017,9 @@
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="D41" s="24"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
@@ -4238,7 +4402,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4467,7 +4631,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>162.24900000000002</v>
+        <v>173.817</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -4577,8 +4741,8 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
-        <v>3.086</v>
+      <c r="F24" s="23">
+        <v>3.0859999999999999</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
@@ -4591,7 +4755,7 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
+      <c r="F25" s="23">
         <v>6.34</v>
       </c>
       <c r="G25" s="23"/>
@@ -4605,8 +4769,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
-        <v>4.223</v>
+      <c r="F26" s="23">
+        <v>4.2229999999999999</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -4619,7 +4783,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>4.7359999999999998</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -4631,7 +4797,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>3.444</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -4643,7 +4811,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>3.388</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -4652,8 +4822,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -4662,7 +4836,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -4672,7 +4848,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -4682,7 +4860,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -4692,7 +4872,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -4702,7 +4884,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -4712,7 +4896,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -4722,7 +4908,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -4732,7 +4920,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -4742,7 +4932,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -4752,7 +4944,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -4762,7 +4956,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
@@ -5145,7 +5341,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5374,7 +5570,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>162.24900000000002</v>
+        <v>173.817</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -5484,8 +5680,8 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
-        <v>3.086</v>
+      <c r="F24" s="23">
+        <v>3.0859999999999999</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
@@ -5498,7 +5694,7 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
+      <c r="F25" s="23">
         <v>6.34</v>
       </c>
       <c r="G25" s="23"/>
@@ -5512,8 +5708,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
-        <v>4.223</v>
+      <c r="F26" s="23">
+        <v>4.2229999999999999</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -5526,7 +5722,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>4.7359999999999998</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -5538,7 +5736,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>3.444</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -5550,7 +5750,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>3.388</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -5559,8 +5761,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -5569,7 +5775,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -5579,7 +5787,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -5589,7 +5799,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -5599,7 +5811,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -5609,7 +5823,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -5619,7 +5835,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -5629,7 +5847,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -5639,7 +5859,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -5649,7 +5871,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -5659,7 +5883,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -5669,7 +5895,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
@@ -6052,7 +6280,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6275,7 +6503,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>162.24900000000002</v>
+        <v>173.817</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -6385,8 +6613,8 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
-        <v>3.086</v>
+      <c r="F24" s="23">
+        <v>3.0859999999999999</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
@@ -6399,7 +6627,7 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
+      <c r="F25" s="23">
         <v>6.34</v>
       </c>
       <c r="G25" s="23"/>
@@ -6413,8 +6641,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
-        <v>4.223</v>
+      <c r="F26" s="23">
+        <v>4.2229999999999999</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -6427,7 +6655,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>4.7359999999999998</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -6439,7 +6669,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>3.444</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -6451,7 +6683,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>3.388</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -6460,8 +6694,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -6470,7 +6708,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -6480,7 +6720,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -6490,7 +6732,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -6500,7 +6744,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -6510,7 +6756,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -6520,7 +6768,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -6530,7 +6780,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -6540,7 +6792,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -6550,7 +6804,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -6560,7 +6816,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -6570,7 +6828,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
